--- a/data/vragenlijst.xlsx
+++ b/data/vragenlijst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="608">
   <si>
     <t>LUISTEREN</t>
   </si>
@@ -1710,6 +1710,9 @@
   </si>
   <si>
     <t>Wie heeft de klacht gesignaleerd?</t>
+  </si>
+  <si>
+    <t>Ikzelf, Iemand anders</t>
   </si>
   <si>
     <t>Plotseling, Geleidelijk, Onbekend</t>
@@ -3179,7 +3182,9 @@
       <c r="B5" s="80" t="s">
         <v>541</v>
       </c>
-      <c r="C5" s="80"/>
+      <c r="C5" s="80" t="s">
+        <v>542</v>
+      </c>
       <c r="D5" s="39"/>
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
@@ -3208,7 +3213,7 @@
         <v>484</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="84"/>
@@ -3234,10 +3239,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="87" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B9" s="115" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" s="76" t="s">
         <v>397</v>
@@ -3250,10 +3255,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="87" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -3267,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -3281,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>397</v>
@@ -3297,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>518</v>
@@ -3372,7 +3377,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="87" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B18" s="115" t="s">
         <v>467</v>
@@ -3388,7 +3393,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="87" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>120</v>
@@ -3402,7 +3407,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="87" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>468</v>
@@ -3418,7 +3423,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="87" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B21" s="115" t="s">
         <v>396</v>
@@ -3434,13 +3439,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="87" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B22" s="80" t="s">
         <v>398</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="84"/>
@@ -3450,10 +3455,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="87" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="39"/>
@@ -3464,10 +3469,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="87" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="39"/>
@@ -3478,10 +3483,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="87" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="39"/>
@@ -3492,10 +3497,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="87" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="39"/>
@@ -3506,10 +3511,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="87" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -3523,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>397</v>
@@ -3595,7 +3600,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="81">
       <c r="A33" s="82"/>
       <c r="B33" s="103" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C33" s="84"/>
       <c r="D33" s="84"/>
@@ -3606,10 +3611,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="87" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B34" s="115" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C34" s="76" t="s">
         <v>397</v>
@@ -3622,13 +3627,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="87" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="84"/>
@@ -3641,10 +3646,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="84"/>
@@ -3657,10 +3662,10 @@
         <f>1+A36</f>
       </c>
       <c r="B37" s="80" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="84"/>
@@ -3673,7 +3678,7 @@
         <f>1+A37</f>
       </c>
       <c r="B38" s="80" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C38" s="76" t="s">
         <v>397</v>
@@ -3689,7 +3694,7 @@
         <f>1+A38</f>
       </c>
       <c r="B39" s="80" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C39" s="76" t="s">
         <v>397</v>
@@ -3705,7 +3710,7 @@
         <f>1+A39</f>
       </c>
       <c r="B40" s="80" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C40" s="76" t="s">
         <v>397</v>
@@ -3721,7 +3726,7 @@
         <f>1+A40</f>
       </c>
       <c r="B41" s="80" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C41" s="76" t="s">
         <v>397</v>
@@ -3737,7 +3742,7 @@
         <f>1+A41</f>
       </c>
       <c r="B42" s="80" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C42" s="76" t="s">
         <v>397</v>
@@ -3751,7 +3756,7 @@
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="38"/>
       <c r="B43" s="103" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C43" s="76"/>
       <c r="D43" s="39"/>
@@ -3765,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="84"/>
@@ -3781,7 +3786,7 @@
         <f>+A44+1</f>
       </c>
       <c r="B45" s="80" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -3795,7 +3800,7 @@
         <f>+A45+1</f>
       </c>
       <c r="B46" s="80" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -3809,7 +3814,7 @@
         <f>+A46+1</f>
       </c>
       <c r="B47" s="80" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -3823,7 +3828,7 @@
         <f>+A47+1</f>
       </c>
       <c r="B48" s="80" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -3837,7 +3842,7 @@
         <f>+A48+1</f>
       </c>
       <c r="B49" s="80" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C49" s="76" t="s">
         <v>397</v>
@@ -3853,7 +3858,7 @@
         <f>+A49+1</f>
       </c>
       <c r="B50" s="80" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C50" s="76" t="s">
         <v>397</v>
@@ -3869,7 +3874,7 @@
         <f>+A50+1</f>
       </c>
       <c r="B51" s="80" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
@@ -3881,7 +3886,7 @@
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="81">
       <c r="A52" s="82"/>
       <c r="B52" s="103" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C52" s="84"/>
       <c r="D52" s="84"/>
@@ -3906,7 +3911,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="87" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B54" s="115" t="s">
         <v>472</v>
@@ -3922,7 +3927,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="87" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B55" s="80" t="s">
         <v>473</v>
@@ -3968,7 +3973,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="87" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B58" s="115" t="s">
         <v>475</v>
@@ -3984,13 +3989,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="87" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B59" s="80" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="76" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="84"/>
@@ -4000,13 +4005,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="87" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B60" s="80" t="s">
         <v>174</v>
       </c>
       <c r="C60" s="76" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="84"/>
@@ -4016,7 +4021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="87" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B61" s="80" t="s">
         <v>423</v>
@@ -4036,7 +4041,7 @@
         <v>477</v>
       </c>
       <c r="C62" s="76" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="84"/>
@@ -4095,7 +4100,7 @@
         <f>1+A65</f>
       </c>
       <c r="B66" s="80" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C66" s="77"/>
       <c r="D66" s="39"/>
@@ -4122,10 +4127,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="87" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B68" s="115" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C68" s="76" t="s">
         <v>397</v>
@@ -4138,7 +4143,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="87" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B69" s="80" t="s">
         <v>144</v>
@@ -4171,7 +4176,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="80" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C71" s="76" t="s">
         <v>397</v>
@@ -4187,7 +4192,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>

--- a/data/vragenlijst.xlsx
+++ b/data/vragenlijst.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="606">
   <si>
     <t>LUISTEREN</t>
   </si>
@@ -1909,7 +1909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,12 +2006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1e7fd2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2428,7 +2422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2699,9 +2693,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="14" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="15" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3005,7 +2996,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -3021,7 +3012,7 @@
     <col min="8" max="8" style="76" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="89" t="s">
         <v>537</v>
       </c>
@@ -3035,7 +3026,7 @@
       <c r="G1" s="67"/>
       <c r="H1" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="89"/>
       <c r="B2" s="82" t="s">
         <v>441</v>
@@ -3047,12 +3038,12 @@
       <c r="G2" s="67"/>
       <c r="H2" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -3061,12 +3052,12 @@
       <c r="G3" s="67"/>
       <c r="H3" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -3075,12 +3066,12 @@
       <c r="G4" s="67"/>
       <c r="H4" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
@@ -3089,29 +3080,31 @@
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="67"/>
+        <v>484</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>541</v>
+      </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>484</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>541</v>
+        <v>462</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>397</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
@@ -3119,12 +3112,12 @@
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="75">
-        <v>6</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>462</v>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>543</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>397</v>
@@ -3135,59 +3128,59 @@
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="75" t="s">
-        <v>542</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="75" t="s">
-        <v>544</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="75">
+        <v>8</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>545</v>
-      </c>
-      <c r="C10" s="91"/>
+        <v>546</v>
+      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="31.5">
       <c r="A11" s="75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="C11" s="91"/>
+        <v>547</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -3197,28 +3190,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>548</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>518</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C13" s="35"/>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="C14" s="91"/>
+        <v>465</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -3227,10 +3220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>397</v>
@@ -3243,13 +3236,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -3258,14 +3251,14 @@
       <c r="H16" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="75">
-        <v>14</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>392</v>
+      <c r="A17" s="75" t="s">
+        <v>549</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>467</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D17" s="67"/>
       <c r="E17" s="67"/>
@@ -3275,14 +3268,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="75" t="s">
-        <v>549</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>467</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="67"/>
       <c r="E18" s="67"/>
       <c r="F18" s="67"/>
@@ -3291,12 +3282,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="75" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="91"/>
+        <v>468</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D19" s="67"/>
       <c r="E19" s="67"/>
       <c r="F19" s="67"/>
@@ -3305,10 +3298,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="75" t="s">
-        <v>551</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>468</v>
+        <v>552</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>396</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>397</v>
@@ -3321,13 +3314,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="75" t="s">
-        <v>552</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>396</v>
+        <v>553</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>398</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>397</v>
+        <v>554</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
@@ -3337,14 +3330,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="75" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>398</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>554</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="C22" s="35"/>
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
       <c r="F22" s="67"/>
@@ -3353,10 +3344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="75" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="67"/>
@@ -3367,10 +3358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="75" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="67"/>
@@ -3381,10 +3372,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="75" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="67"/>
@@ -3395,10 +3386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="75" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="67"/>
@@ -3408,13 +3399,15 @@
       <c r="H26" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="75" t="s">
-        <v>563</v>
+      <c r="A27" s="75">
+        <v>17</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>564</v>
-      </c>
-      <c r="C27" s="91"/>
+        <v>565</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
@@ -3423,14 +3416,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="75">
-        <v>17</v>
+        <f>+A28+1</f>
       </c>
       <c r="B28" s="67" t="s">
-        <v>565</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C28" s="35"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
@@ -3439,12 +3430,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="75">
-        <f>+A28+1</f>
+        <f>+A29+1</f>
       </c>
       <c r="B29" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="C29" s="35"/>
+        <v>469</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -3453,14 +3446,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="75">
-        <f>+A29+1</f>
+        <f>+A30+1</f>
       </c>
       <c r="B30" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C30" s="35"/>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
       <c r="F30" s="67"/>
@@ -3469,10 +3460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="75">
-        <f>+A30+1</f>
+        <f>+A31+1</f>
       </c>
       <c r="B31" s="67" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="67"/>
@@ -3481,26 +3472,28 @@
       <c r="G31" s="67"/>
       <c r="H31" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="75">
-        <f>+A31+1</f>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>470</v>
-      </c>
-      <c r="C32" s="91"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="70">
+      <c r="A32" s="71"/>
+      <c r="B32" s="83" t="s">
+        <v>566</v>
+      </c>
+      <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="67"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="70">
-      <c r="A33" s="71"/>
-      <c r="B33" s="83" t="s">
-        <v>566</v>
-      </c>
-      <c r="C33" s="67"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D33" s="67"/>
       <c r="E33" s="67"/>
       <c r="F33" s="67"/>
@@ -3509,13 +3502,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="75" t="s">
-        <v>567</v>
-      </c>
-      <c r="B34" s="90" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>570</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>397</v>
+        <v>571</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
@@ -3524,14 +3517,14 @@
       <c r="H34" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="75" t="s">
-        <v>569</v>
+      <c r="A35" s="75">
+        <v>23</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>573</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="67"/>
@@ -3541,13 +3534,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="75">
-        <v>23</v>
+        <f>1+A36</f>
       </c>
       <c r="B36" s="67" t="s">
         <v>572</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
@@ -3557,13 +3550,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="75">
-        <f>1+A36</f>
+        <f>1+A37</f>
       </c>
       <c r="B37" s="67" t="s">
-        <v>572</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>397</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
@@ -3573,10 +3566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="75">
-        <f>1+A37</f>
+        <f>1+A38</f>
       </c>
       <c r="B38" s="67" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>397</v>
@@ -3589,10 +3582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="75">
-        <f>1+A38</f>
+        <f>1+A39</f>
       </c>
       <c r="B39" s="67" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>397</v>
@@ -3605,10 +3598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="75">
-        <f>1+A39</f>
+        <f>1+A40</f>
       </c>
       <c r="B40" s="67" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>397</v>
@@ -3621,10 +3614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="75">
-        <f>1+A40</f>
+        <f>1+A41</f>
       </c>
       <c r="B41" s="67" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>397</v>
@@ -3636,15 +3629,11 @@
       <c r="H41" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="75">
-        <f>1+A41</f>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>397</v>
-      </c>
+      <c r="A42" s="34"/>
+      <c r="B42" s="83" t="s">
+        <v>580</v>
+      </c>
+      <c r="C42" s="35"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
@@ -3652,11 +3641,15 @@
       <c r="H42" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="C43" s="35"/>
+      <c r="A43" s="75">
+        <v>30</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>581</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>582</v>
+      </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
@@ -3665,14 +3658,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="75">
-        <v>30</v>
+        <f>+A44+1</f>
       </c>
       <c r="B44" s="67" t="s">
-        <v>581</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>582</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="C44" s="35"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
@@ -3681,12 +3672,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="75">
-        <f>+A44+1</f>
+        <f>+A45+1</f>
       </c>
       <c r="B45" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="C45" s="91"/>
+        <v>584</v>
+      </c>
+      <c r="C45" s="35"/>
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
@@ -3695,12 +3686,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="75">
-        <f>+A45+1</f>
+        <f>+A46+1</f>
       </c>
       <c r="B46" s="67" t="s">
-        <v>584</v>
-      </c>
-      <c r="C46" s="91"/>
+        <v>585</v>
+      </c>
+      <c r="C46" s="35"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
       <c r="F46" s="67"/>
@@ -3709,12 +3700,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="75">
-        <f>+A46+1</f>
+        <f>+A47+1</f>
       </c>
       <c r="B47" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="C47" s="91"/>
+        <v>586</v>
+      </c>
+      <c r="C47" s="35"/>
       <c r="D47" s="67"/>
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
@@ -3723,12 +3714,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="75">
-        <f>+A47+1</f>
+        <f>+A48+1</f>
       </c>
       <c r="B48" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="C48" s="91"/>
+        <v>587</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D48" s="67"/>
       <c r="E48" s="67"/>
       <c r="F48" s="67"/>
@@ -3737,10 +3730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="75">
-        <f>+A48+1</f>
+        <f>+A49+1</f>
       </c>
       <c r="B49" s="67" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>397</v>
@@ -3753,40 +3746,38 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="75">
-        <f>+A49+1</f>
+        <f>+A50+1</f>
       </c>
       <c r="B50" s="67" t="s">
-        <v>588</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="C50" s="35"/>
       <c r="D50" s="67"/>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
       <c r="H50" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="75">
-        <f>+A50+1</f>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="C51" s="91"/>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="70">
+      <c r="A51" s="71"/>
+      <c r="B51" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="C51" s="67"/>
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
       <c r="H51" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="70">
-      <c r="A52" s="71"/>
-      <c r="B52" s="83" t="s">
-        <v>590</v>
-      </c>
-      <c r="C52" s="67"/>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="75">
+        <v>38</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" s="35"/>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
@@ -3794,13 +3785,15 @@
       <c r="H52" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="75">
-        <v>38</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C53" s="91"/>
+      <c r="A53" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="B53" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D53" s="67"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
@@ -3809,14 +3802,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="75" t="s">
-        <v>591</v>
-      </c>
-      <c r="B54" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" s="35"/>
       <c r="D54" s="67"/>
       <c r="E54" s="67"/>
       <c r="F54" s="67"/>
@@ -3824,13 +3815,15 @@
       <c r="H54" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="75" t="s">
-        <v>592</v>
+      <c r="A55" s="75">
+        <v>40</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="C55" s="91"/>
+        <v>474</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D55" s="67"/>
       <c r="E55" s="67"/>
       <c r="F55" s="67"/>
@@ -3839,10 +3832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>397</v>
@@ -3854,11 +3847,11 @@
       <c r="H56" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="75">
-        <v>41</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>414</v>
+      <c r="A57" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>475</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>397</v>
@@ -3871,13 +3864,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="75" t="s">
-        <v>593</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>475</v>
+        <v>594</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>174</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>397</v>
+        <v>595</v>
       </c>
       <c r="D58" s="67"/>
       <c r="E58" s="67"/>
@@ -3887,13 +3880,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="75" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B59" s="67" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D59" s="67"/>
       <c r="E59" s="67"/>
@@ -3903,14 +3896,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="75" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>597</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="C60" s="35"/>
       <c r="D60" s="67"/>
       <c r="E60" s="67"/>
       <c r="F60" s="67"/>
@@ -3918,13 +3909,15 @@
       <c r="H60" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="75" t="s">
-        <v>598</v>
+      <c r="A61" s="75">
+        <v>43</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>423</v>
-      </c>
-      <c r="C61" s="91"/>
+        <v>477</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>599</v>
+      </c>
       <c r="D61" s="67"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
@@ -3933,13 +3926,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="75">
-        <v>43</v>
+        <f>1+A62</f>
       </c>
       <c r="B62" s="67" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>599</v>
+        <v>397</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
@@ -3949,14 +3942,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="75">
-        <f>1+A62</f>
+        <f>1+A63</f>
       </c>
       <c r="B63" s="67" t="s">
-        <v>418</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C63" s="35"/>
       <c r="D63" s="67"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
@@ -3965,12 +3956,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="75">
-        <f>1+A63</f>
+        <f>1+A64</f>
       </c>
       <c r="B64" s="67" t="s">
-        <v>420</v>
-      </c>
-      <c r="C64" s="91"/>
+        <v>421</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>518</v>
+      </c>
       <c r="D64" s="67"/>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
@@ -3979,14 +3972,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="75">
-        <f>1+A64</f>
+        <f>1+A65</f>
       </c>
       <c r="B65" s="67" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>518</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C65" s="68"/>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
@@ -3995,12 +3986,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="75">
-        <f>1+A65</f>
+        <f>1+A66</f>
       </c>
       <c r="B66" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="C66" s="68"/>
+        <v>517</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>518</v>
+      </c>
       <c r="D66" s="67"/>
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
@@ -4008,14 +4001,14 @@
       <c r="H66" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="75">
-        <f>1+A66</f>
-      </c>
-      <c r="B67" s="67" t="s">
-        <v>517</v>
+      <c r="A67" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="90" t="s">
+        <v>602</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
@@ -4025,14 +4018,12 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="B68" s="90" t="s">
-        <v>602</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="35"/>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
@@ -4040,13 +4031,15 @@
       <c r="H68" s="67"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="75" t="s">
-        <v>603</v>
+      <c r="A69" s="75">
+        <v>50</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="91"/>
+        <v>426</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>397</v>
+      </c>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
@@ -4055,10 +4048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="75">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>426</v>
+        <v>604</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>397</v>
@@ -4071,43 +4064,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="75">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>397</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="C71" s="35"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
       <c r="G71" s="67"/>
       <c r="H71" s="67"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="75">
-        <v>52</v>
-      </c>
-      <c r="B72" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="C72" s="91"/>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="70">
+      <c r="A72" s="71"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="67"/>
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
       <c r="G72" s="67"/>
       <c r="H72" s="67"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="70">
-      <c r="A73" s="71"/>
-      <c r="B73" s="67"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
